--- a/biology/Médecine/1704_en_santé_et_médecine/1704_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1704_en_santé_et_médecine/1704_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1704_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1704_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1704 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1704_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1704_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>26 juillet : Jeanne Delanoue fonde à Saumur les servantes des pauvres[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>26 juillet : Jeanne Delanoue fonde à Saumur les servantes des pauvres.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1704_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1704_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les Opera omnia medico-practica et anatomica (lire en ligne) de Giorgio Baglivi sont publiées à Lyon[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Opera omnia medico-practica et anatomica (lire en ligne) de Giorgio Baglivi sont publiées à Lyon.</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1704_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1704_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,12 +587,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3 septembre : Joseph de Jussieu (mort en 1779), médecin et botaniste français, membre de l'expédition de Charles Marie de La Condamine, chargée de mesurer l'arc du méridien à l'Équateur[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 septembre : Joseph de Jussieu (mort en 1779), médecin et botaniste français, membre de l'expédition de Charles Marie de La Condamine, chargée de mesurer l'arc du méridien à l'Équateur.
 27 septembre : Louis de Jaucourt (mort en 1780), médecin et collaborateur de l'Encyclopédie de Diderot et D'Alembert.
 29 septembre : Johann Friedrich Cartheuser (mort en 1777), médecin allemand, professeur de chimie et de pathologie à Francfort-sur-l'Oder.
-8 décembre : Anton de Haen (mort en 1776), médecin autrichien, chef de la médecine clinique de l'Université de Vienne[4].</t>
+8 décembre : Anton de Haen (mort en 1776), médecin autrichien, chef de la médecine clinique de l'Université de Vienne.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1704_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1704_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>28 octobre : John Locke  (né en 1632), médecin et philosophe anglais[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>28 octobre : John Locke  (né en 1632), médecin et philosophe anglais.
 Date non précisée
 Jean Baptiste Denis (né en 1643), médecin de Louis XIV.</t>
         </is>
